--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1091323.918900938</v>
+        <v>1084313.189784943</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791239</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>29.93448586742615</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>321.664868837388</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +744,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>69.98930104615282</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>73.56694811696283</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>214.7651156389419</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>356.4922375040853</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>170.363803297164</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968129</v>
+        <v>43.66266530373051</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>65.51730545107098</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>216.8524214313258</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>249.7528576000308</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -1145,13 +1145,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>217.5173593407949</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>138.9760534227814</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>127.7349619690958</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I11" t="n">
-        <v>16.35573761503184</v>
+        <v>65.87543334372781</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362793</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>180.7254458088008</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993877</v>
+        <v>14.00402593297393</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465761</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442488</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681701</v>
+        <v>95.4932009668169</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338906</v>
+        <v>82.84545313338894</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456087</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901691</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>37.59373730083043</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>237.0560400574679</v>
+        <v>205.0867830034951</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>84.67436304442479</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681699</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>72.86907505257658</v>
+        <v>39.9638968900932</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277652</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
         <v>90.90562710059311</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
         <v>282.3655247697376</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
         <v>236.929075365811</v>
@@ -2384,7 +2384,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291034</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838901</v>
+        <v>24.17382596574986</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828913</v>
+        <v>52.06849973564998</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431746</v>
+        <v>70.5760187316783</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459986</v>
+        <v>55.72314698196071</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643959</v>
+        <v>41.29686219380044</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193187</v>
+        <v>41.22330424667955</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908597</v>
+        <v>42.97275566644682</v>
       </c>
       <c r="G34" t="n">
-        <v>60.2350560614781</v>
+        <v>53.79159358883895</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805015</v>
+        <v>41.14384575541099</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922208</v>
+        <v>18.98356133658292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.325522173678</v>
+        <v>9.882059701038841</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920531</v>
+        <v>88.00800320656616</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
@@ -3958,13 +3958,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U44" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W44" t="n">
         <v>236.929075365811</v>
@@ -4043,7 +4043,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V46" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1173.291046173527</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="C2" t="n">
-        <v>780.1155446764578</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="D2" t="n">
-        <v>780.1155446764578</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="E2" t="n">
-        <v>377.5320197930023</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634779</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475502</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>175.3530084793379</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="L2" t="n">
-        <v>668.6733001978668</v>
+        <v>679.4733113836953</v>
       </c>
       <c r="M2" t="n">
-        <v>1206.93208520796</v>
+        <v>1193.075989993383</v>
       </c>
       <c r="N2" t="n">
-        <v>1734.743368845422</v>
+        <v>1193.075989993383</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737751</v>
+        <v>1633.115590885712</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737751</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964323</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T2" t="n">
-        <v>1970.276500964323</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="U2" t="n">
-        <v>1970.276500964323</v>
+        <v>1614.903139478093</v>
       </c>
       <c r="V2" t="n">
-        <v>1970.276500964323</v>
+        <v>1272.796330181612</v>
       </c>
       <c r="W2" t="n">
-        <v>1970.276500964323</v>
+        <v>901.7972951498991</v>
       </c>
       <c r="X2" t="n">
-        <v>1970.276500964323</v>
+        <v>901.7972951498991</v>
       </c>
       <c r="Y2" t="n">
-        <v>1573.785791884924</v>
+        <v>901.7972951498991</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021456</v>
+        <v>704.4227390072571</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622378</v>
+        <v>553.7685085673493</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837181</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946059</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777377</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>43.49565939475502</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475502</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1498.174658585115</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N3" t="n">
-        <v>2036.433443595208</v>
+        <v>1985.128818155982</v>
       </c>
       <c r="O3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535684</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734592</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413234</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784301</v>
+        <v>1454.957613889413</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917588</v>
+        <v>1224.8403680227</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675997</v>
+        <v>1035.533290372711</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431069</v>
+        <v>856.2190734482184</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="C4" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="D4" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="E4" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="F4" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="G4" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H4" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="U4" t="n">
-        <v>659.5038901782084</v>
+        <v>95.07535252315239</v>
       </c>
       <c r="V4" t="n">
-        <v>393.5245449990326</v>
+        <v>95.07535252315239</v>
       </c>
       <c r="W4" t="n">
-        <v>176.5900847576771</v>
+        <v>95.07535252315239</v>
       </c>
       <c r="X4" t="n">
-        <v>176.5900847576771</v>
+        <v>95.07535252315239</v>
       </c>
       <c r="Y4" t="n">
-        <v>176.5900847576771</v>
+        <v>95.07535252315239</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1205.924395844155</v>
+        <v>1736.564132962857</v>
       </c>
       <c r="C5" t="n">
-        <v>1205.924395844155</v>
+        <v>1736.564132962857</v>
       </c>
       <c r="D5" t="n">
-        <v>820.483267060823</v>
+        <v>1736.564132962857</v>
       </c>
       <c r="E5" t="n">
-        <v>820.483267060823</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="F5" t="n">
-        <v>403.5888285908007</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475502</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475502</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>547.1277883310449</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M5" t="n">
-        <v>858.7445930764383</v>
+        <v>1286.935244793072</v>
       </c>
       <c r="N5" t="n">
-        <v>1386.5558767139</v>
+        <v>1286.935244793072</v>
       </c>
       <c r="O5" t="n">
-        <v>1826.595477606229</v>
+        <v>1726.9748456854</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737751</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737751</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="U5" t="n">
-        <v>1919.030240172349</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="V5" t="n">
-        <v>1576.923430875868</v>
+        <v>1736.564132962857</v>
       </c>
       <c r="W5" t="n">
-        <v>1205.924395844155</v>
+        <v>1736.564132962857</v>
       </c>
       <c r="X5" t="n">
-        <v>1205.924395844155</v>
+        <v>1736.564132962857</v>
       </c>
       <c r="Y5" t="n">
-        <v>1205.924395844155</v>
+        <v>1736.564132962857</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284343</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585115</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N6" t="n">
-        <v>1658.26268714677</v>
+        <v>1985.128818155982</v>
       </c>
       <c r="O6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737751</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737751</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1872.210915287855</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1662.147771966497</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1439.607770337564</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1209.49052447085</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1020.183446820862</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>840.8692298963695</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="C7" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="D7" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="E7" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="F7" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="G7" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H7" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>330.7944043549183</v>
       </c>
       <c r="V7" t="n">
-        <v>678.9633367571316</v>
+        <v>330.7944043549183</v>
       </c>
       <c r="W7" t="n">
-        <v>395.6329346883093</v>
+        <v>330.7944043549183</v>
       </c>
       <c r="X7" t="n">
-        <v>176.5900847576771</v>
+        <v>330.7944043549183</v>
       </c>
       <c r="Y7" t="n">
-        <v>176.5900847576771</v>
+        <v>107.6823431715617</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1994.649470045468</v>
+        <v>1410.588488273172</v>
       </c>
       <c r="C8" t="n">
-        <v>1994.649470045468</v>
+        <v>1410.588488273172</v>
       </c>
       <c r="D8" t="n">
-        <v>1742.373856308063</v>
+        <v>1410.588488273172</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>1008.004963389717</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>591.1105249196943</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1086.634161864653</v>
+        <v>1489.649729308197</v>
       </c>
       <c r="N8" t="n">
-        <v>1614.445445502115</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1800.041093340115</v>
       </c>
       <c r="W8" t="n">
-        <v>1994.649470045468</v>
+        <v>1800.041093340115</v>
       </c>
       <c r="X8" t="n">
-        <v>1994.649470045468</v>
+        <v>1410.588488273172</v>
       </c>
       <c r="Y8" t="n">
-        <v>1994.649470045468</v>
+        <v>1410.588488273172</v>
       </c>
     </row>
     <row r="9">
@@ -4893,7 +4893,7 @@
         <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486199</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
         <v>2365.64850507718</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>1895.00169462778</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>1895.00169462778</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>1895.00169462778</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>1754.621842685577</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>1597.29590789855</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>1597.29590789855</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>1597.29590789855</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="K10" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M10" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N10" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O10" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.350142930551</v>
       </c>
       <c r="P10" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q10" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U10" t="n">
-        <v>819.7347785328983</v>
+        <v>2080.209713319081</v>
       </c>
       <c r="V10" t="n">
-        <v>553.7554333537225</v>
+        <v>2080.209713319081</v>
       </c>
       <c r="W10" t="n">
-        <v>270.4250312849002</v>
+        <v>2080.209713319081</v>
       </c>
       <c r="X10" t="n">
-        <v>270.4250312849002</v>
+        <v>2080.209713319081</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>2080.209713319081</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1983.202823492229</v>
+        <v>1374.479701206712</v>
       </c>
       <c r="C11" t="n">
-        <v>1661.823597141354</v>
+        <v>1053.100474855836</v>
       </c>
       <c r="D11" t="n">
-        <v>1348.178743504215</v>
+        <v>1053.100474855836</v>
       </c>
       <c r="E11" t="n">
-        <v>1017.391493766953</v>
+        <v>722.3132251185747</v>
       </c>
       <c r="F11" t="n">
-        <v>672.2933304431249</v>
+        <v>722.3132251185747</v>
       </c>
       <c r="G11" t="n">
-        <v>330.9268500773219</v>
+        <v>380.9467447527718</v>
       </c>
       <c r="H11" t="n">
-        <v>78.64007479000628</v>
+        <v>128.6599694654565</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2954.252057911387</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>2954.252057911387</v>
+        <v>2827.282650873814</v>
       </c>
       <c r="V11" t="n">
-        <v>2954.252057911387</v>
+        <v>2644.731695511388</v>
       </c>
       <c r="W11" t="n">
-        <v>2954.252057911387</v>
+        <v>2345.52893562587</v>
       </c>
       <c r="X11" t="n">
-        <v>2636.595727990637</v>
+        <v>2027.87260570512</v>
       </c>
       <c r="Y11" t="n">
-        <v>2311.901294057432</v>
+        <v>1703.178171771915</v>
       </c>
     </row>
     <row r="12">
@@ -5130,7 +5130,7 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>509.9602217740422</v>
+        <v>317.702813307894</v>
       </c>
       <c r="C13" t="n">
-        <v>411.5513789862252</v>
+        <v>303.5573325675163</v>
       </c>
       <c r="D13" t="n">
-        <v>411.5513789862252</v>
+        <v>303.5573325675163</v>
       </c>
       <c r="E13" t="n">
-        <v>327.7888419916216</v>
+        <v>303.5573325675163</v>
       </c>
       <c r="F13" t="n">
-        <v>242.2591823507883</v>
+        <v>303.5573325675163</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K13" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027738</v>
       </c>
       <c r="M13" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138165</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593278</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907706</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295801</v>
+        <v>988.1475398457742</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628189</v>
+        <v>793.9644698127925</v>
       </c>
       <c r="W13" t="n">
-        <v>661.3454373401904</v>
+        <v>582.4303428901641</v>
       </c>
       <c r="X13" t="n">
-        <v>623.3719653191497</v>
+        <v>582.4303428901641</v>
       </c>
       <c r="Y13" t="n">
-        <v>623.3719653191497</v>
+        <v>431.1145568530013</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1547.389404957965</v>
+        <v>1828.742079752706</v>
       </c>
       <c r="C14" t="n">
-        <v>1226.010178607089</v>
+        <v>1507.362853401831</v>
       </c>
       <c r="D14" t="n">
-        <v>1226.010178607089</v>
+        <v>1193.717999764692</v>
       </c>
       <c r="E14" t="n">
-        <v>895.2229288698277</v>
+        <v>862.9307500274308</v>
       </c>
       <c r="F14" t="n">
-        <v>655.7723833572339</v>
+        <v>655.7723833572338</v>
       </c>
       <c r="G14" t="n">
-        <v>314.405902991431</v>
+        <v>314.4059029914309</v>
       </c>
       <c r="H14" t="n">
         <v>62.11912770411553</v>
@@ -5309,19 +5309,19 @@
         <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2770.295603492179</v>
+        <v>2770.29560349218</v>
       </c>
       <c r="V14" t="n">
-        <v>2499.985069341892</v>
+        <v>2770.29560349218</v>
       </c>
       <c r="W14" t="n">
-        <v>2200.782309456373</v>
+        <v>2471.092843606661</v>
       </c>
       <c r="X14" t="n">
-        <v>2200.782309456373</v>
+        <v>2153.436513685911</v>
       </c>
       <c r="Y14" t="n">
-        <v>1876.087875523168</v>
+        <v>1828.742079752706</v>
       </c>
     </row>
     <row r="15">
@@ -5364,13 +5364,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>379.0098426317715</v>
+        <v>416.9138851238274</v>
       </c>
       <c r="C16" t="n">
-        <v>379.0098426317715</v>
+        <v>416.9138851238274</v>
       </c>
       <c r="D16" t="n">
-        <v>379.0098426317715</v>
+        <v>333.0770471725361</v>
       </c>
       <c r="E16" t="n">
-        <v>379.0098426317715</v>
+        <v>249.3145101779325</v>
       </c>
       <c r="F16" t="n">
-        <v>293.4801829909383</v>
+        <v>163.7848505370994</v>
       </c>
       <c r="G16" t="n">
-        <v>197.0224042365777</v>
+        <v>163.7848505370994</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
         <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N16" t="n">
         <v>999.6269248138162</v>
@@ -5452,7 +5452,7 @@
         <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173673</v>
       </c>
       <c r="Q16" t="n">
         <v>1496.732641814508</v>
@@ -5467,19 +5467,19 @@
         <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245443</v>
+        <v>936.042825624545</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915625</v>
+        <v>741.8597555915633</v>
       </c>
       <c r="W16" t="n">
-        <v>530.3256286689343</v>
+        <v>530.3256286689348</v>
       </c>
       <c r="X16" t="n">
-        <v>530.3256286689343</v>
+        <v>530.3256286689348</v>
       </c>
       <c r="Y16" t="n">
-        <v>379.0098426317715</v>
+        <v>530.3256286689348</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
         <v>1352.560722599515</v>
@@ -5504,7 +5504,7 @@
         <v>542.6718405099309</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
         <v>68.77950792924223</v>
@@ -5540,13 +5540,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5555,7 +5555,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,22 +5592,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5674,25 +5674,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5750,19 +5750,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,7 +5771,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
         <v>3105.956385205777</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5911,25 +5911,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -5999,7 +5999,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,7 +6008,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
         <v>3105.956385205777</v>
@@ -6020,19 +6020,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>568.1699486069232</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369568</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072661</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462912</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>804.5780233445246</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>967.2827903862326</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162811</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6218,37 +6218,37 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
         <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388517</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755553</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377455</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605751</v>
@@ -6257,16 +6257,16 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,31 +6297,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755025</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755025</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>73.36485894755025</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G28" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
@@ -6391,7 +6391,7 @@
         <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6424,10 +6424,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6467,10 +6467,10 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
         <v>2516.334910202705</v>
@@ -6479,7 +6479,7 @@
         <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3483.397387236565</v>
       </c>
       <c r="Q29" t="n">
         <v>3668.242947377513</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>73.36485894755026</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>579.4156798503576</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463672</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057095</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835507</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076166</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766598</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041216</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.77306162265</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1765.947289781682</v>
+        <v>1722.160576876728</v>
       </c>
       <c r="N32" t="n">
-        <v>2399.031666146214</v>
+        <v>2249.97186051419</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.071267038542</v>
+        <v>2733.071607269801</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897134</v>
+        <v>3081.259099401324</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038083</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038083</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908498</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.18438039728</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076166</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>502.4016765227155</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5983691435694</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965136</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918673</v>
+        <v>309.3853606404862</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237465</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123135</v>
+        <v>226.0316571652539</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546509</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834609</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431931</v>
+        <v>86.730450083742</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076166</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074062</v>
+        <v>261.0422972872698</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076242</v>
+        <v>425.1699371610696</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458883</v>
+        <v>723.1136360743164</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041675</v>
+        <v>906.3032701055256</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872946</v>
+        <v>1069.008037147234</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376594</v>
+        <v>1264.910118928622</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746645</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518099</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439553</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000951</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124426</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584504</v>
+        <v>436.9602755027478</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
@@ -6956,13 +6956,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,13 +6971,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7026,10 +7026,10 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>2146.089571124861</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O36" t="n">
-        <v>2146.089571124861</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7087,7 +7087,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7096,25 +7096,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7154,19 +7154,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,13 +7433,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
         <v>2855.219708188068</v>
@@ -7448,7 +7448,7 @@
         <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7494,19 +7494,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P43" t="n">
-        <v>960.1439538756169</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532863</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7597,22 +7597,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="44">
@@ -7631,16 +7631,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
         <v>261.1858216803435</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,22 +7670,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
         <v>2147.691468840156</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369568</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072661</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462912</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7819,37 +7819,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162811</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>276.2476446788161</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321648</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>410.1006258169469</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8064,13 +8064,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837495</v>
+        <v>611.1777065035424</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886043</v>
+        <v>604.1626973083971</v>
       </c>
       <c r="O3" t="n">
-        <v>232.434554992467</v>
+        <v>183.6305080413536</v>
       </c>
       <c r="P3" t="n">
         <v>87.08336481931465</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>464.4895008354983</v>
+        <v>546.8254054267602</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8301,13 +8301,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837495</v>
+        <v>611.1777065035424</v>
       </c>
       <c r="N6" t="n">
-        <v>247.0771922093732</v>
+        <v>604.1626973083971</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>183.6305080413536</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>599.6082218521052</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9375821741921</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8541,10 +8541,10 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>388.2984090135469</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P9" t="n">
         <v>87.08336481931465</v>
@@ -8778,10 +8778,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>345.5977578821532</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
         <v>87.08336481931465</v>
@@ -9012,16 +9012,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>569.9919810238538</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9240,13 +9240,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
@@ -9255,10 +9255,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9477,28 +9477,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>603.5495674056832</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9717,13 +9717,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>486.9652344155852</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
@@ -9732,10 +9732,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>173.3576105420024</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,28 +9951,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>603.549567405683</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,28 +10188,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>603.549567405683</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10431,22 +10431,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>166.3231752016895</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>212.248871977908</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K35" t="n">
         <v>505.666843611017</v>
@@ -10674,13 +10674,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>630.6030013529515</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10899,28 +10899,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11142,22 +11142,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>163.9964000092958</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>49.51969572869608</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362804</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>86.88198299998403</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>83.42072842696473</v>
       </c>
       <c r="D13" t="n">
-        <v>82.9984695717785</v>
+        <v>82.99846957177839</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.9249116246575</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442477</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456099</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901679</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>123.0674692992844</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>104.5911416331222</v>
+        <v>136.5603986870949</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993875</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H16" t="n">
-        <v>9.97637808081244</v>
+        <v>42.88155624329578</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.592326932761353e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>780859.2147795622</v>
+        <v>780859.2147795624</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>883627.6726574481</v>
+        <v>883627.672657448</v>
       </c>
     </row>
     <row r="8">
@@ -26314,46 +26314,46 @@
         <v>378697.5739960494</v>
       </c>
       <c r="C2" t="n">
-        <v>378697.5739960493</v>
+        <v>378697.5739960492</v>
       </c>
       <c r="D2" t="n">
-        <v>378697.5739960493</v>
+        <v>378697.5739960494</v>
       </c>
       <c r="E2" t="n">
+        <v>334653.949191241</v>
+      </c>
+      <c r="F2" t="n">
         <v>334653.9491912409</v>
       </c>
-      <c r="F2" t="n">
-        <v>334653.9491912411</v>
-      </c>
       <c r="G2" t="n">
-        <v>378697.5739960494</v>
+        <v>378697.5739960492</v>
       </c>
       <c r="H2" t="n">
-        <v>378697.5739960493</v>
+        <v>378697.5739960491</v>
       </c>
       <c r="I2" t="n">
-        <v>378697.5739960492</v>
+        <v>378697.5739960491</v>
       </c>
       <c r="J2" t="n">
         <v>378697.5739960494</v>
       </c>
       <c r="K2" t="n">
-        <v>378697.5739960495</v>
+        <v>378697.5739960494</v>
       </c>
       <c r="L2" t="n">
-        <v>378697.5739960495</v>
+        <v>378697.5739960489</v>
       </c>
       <c r="M2" t="n">
-        <v>378697.5739960491</v>
+        <v>378697.5739960493</v>
       </c>
       <c r="N2" t="n">
-        <v>378697.5739960491</v>
+        <v>378697.5739960492</v>
       </c>
       <c r="O2" t="n">
-        <v>378697.5739960491</v>
+        <v>378697.5739960492</v>
       </c>
       <c r="P2" t="n">
-        <v>378697.5739960491</v>
+        <v>378697.5739960492</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062176</v>
+        <v>22558.42953401351</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>47425.32553668192</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>200285.8640399294</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>62456.24177539672</v>
+      </c>
+      <c r="M3" t="n">
+        <v>43252.52447081116</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
-      <c r="G3" t="n">
-        <v>47425.32553668196</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
-      </c>
-      <c r="J3" t="n">
-        <v>206802.1491945025</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>57301.47179728544</v>
-      </c>
-      <c r="M3" t="n">
-        <v>42200.82945962297</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
-      </c>
       <c r="O3" t="n">
-        <v>27767.69404277115</v>
+        <v>27767.69404277127</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243103</v>
+        <v>173918.2775005336</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243102</v>
+        <v>173918.2775005336</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704044</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.49552373742</v>
+        <v>74084.49552373754</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373745</v>
+        <v>74084.49552373751</v>
       </c>
       <c r="G4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="H4" t="n">
         <v>121843.4120153197</v>
@@ -26445,19 +26445,19 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701646</v>
       </c>
       <c r="M4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="N4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="O4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="P4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26488,7 +26488,7 @@
         <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37397.77866013076</v>
+        <v>-34249.42807335642</v>
       </c>
       <c r="C6" t="n">
-        <v>144807.1696317252</v>
+        <v>139609.2289606984</v>
       </c>
       <c r="D6" t="n">
-        <v>139943.88733785</v>
+        <v>132207.5981144584</v>
       </c>
       <c r="E6" t="n">
-        <v>95260.87249361849</v>
+        <v>95051.14094692878</v>
       </c>
       <c r="F6" t="n">
-        <v>207383.4339676631</v>
+        <v>207173.7024209734</v>
       </c>
       <c r="G6" t="n">
-        <v>151259.0671285281</v>
+        <v>151259.067128528</v>
       </c>
       <c r="H6" t="n">
-        <v>198684.39266521</v>
+        <v>198684.3926652098</v>
       </c>
       <c r="I6" t="n">
         <v>198684.3926652098</v>
       </c>
       <c r="J6" t="n">
-        <v>-14357.52493207539</v>
+        <v>-7841.239777502291</v>
       </c>
       <c r="K6" t="n">
-        <v>192444.6242624272</v>
+        <v>192444.6242624271</v>
       </c>
       <c r="L6" t="n">
-        <v>137262.0353278062</v>
+        <v>133213.1981173333</v>
       </c>
       <c r="M6" t="n">
-        <v>156483.5632055868</v>
+        <v>155431.8681943988</v>
       </c>
       <c r="N6" t="n">
-        <v>198684.3926652098</v>
+        <v>198684.3926652099</v>
       </c>
       <c r="O6" t="n">
-        <v>170916.6986224387</v>
+        <v>170916.6986224386</v>
       </c>
       <c r="P6" t="n">
-        <v>198684.3926652098</v>
+        <v>198684.3926652099</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,25 +26811,25 @@
         <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095208</v>
+        <v>844.4391950293137</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="P4" t="n">
         <v>776.4890963014442</v>
-      </c>
-      <c r="P4" t="n">
-        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>59.2816569208524</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>34.70961755346408</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>78.0703022192459</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17.58004954287439</v>
+      </c>
+      <c r="N2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="G2" t="n">
-        <v>59.28165692085246</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
-      </c>
-      <c r="J2" t="n">
-        <v>34.70961755346394</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>71.62683974660681</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.02351201551357</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
-      </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773714</v>
+        <v>659.3622249971645</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.2217133240723</v>
+        <v>117.1268713042794</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>366.5553123868568</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>91.06062524793401</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27433,19 +27433,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48.86991870270138</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>146.7476534956808</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>130.3195537952425</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27555,7 +27555,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>65.73198240919223</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27619,22 +27619,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>52.53889045279158</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>168.3219379063528</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626774</v>
+        <v>131.5513083793501</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>117.8386330533173</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27792,7 +27792,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>14.88709756352094</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>131.8338598954681</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>191.513768616082</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28017,10 +28017,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>15.0271705966081</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28029,7 +28029,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28065,19 +28065,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>154.8494418714222</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="K13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="L13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="M13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="N13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="O13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="P13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="R13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="S13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="17">
@@ -28746,14 +28746,14 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L19" t="n">
-        <v>5.63600263452912</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28983,28 +28983,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29071,7 +29071,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -29217,11 +29217,11 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
@@ -29229,19 +29229,19 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>28.01250026485164</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>30.27223765901135</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29539,22 +29539,22 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>86.65052755599589</v>
       </c>
       <c r="Q29" t="n">
-        <v>86.65052755599532</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>37.61298457733328</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M32" t="n">
-        <v>48.65992738833415</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>43.49509683159926</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000708</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L34" t="n">
-        <v>18.71446861254367</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000708</v>
+        <v>76.79385455031323</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30168,10 +30168,10 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.63600263452912</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30183,13 +30183,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.3599693155844</v>
+        <v>35.71049010668751</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2979821082778</v>
+        <v>28.01250026485194</v>
       </c>
       <c r="R43" t="n">
         <v>130.3599693155844</v>
@@ -30891,16 +30891,16 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>128.2979821082769</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5.636002634529005</v>
-      </c>
-      <c r="R46" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -32014,7 +32014,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>133.1892414995787</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>259.7991785760217</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,13 +34784,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O3" t="n">
-        <v>139.7469961035781</v>
+        <v>90.94294915246475</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>314.764449237771</v>
+        <v>397.1003538290329</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35021,13 +35021,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N6" t="n">
-        <v>161.7050793552065</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>90.94294915246475</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>449.8831702543779</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>220.3737447500957</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35261,10 +35261,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>302.9262961593802</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35498,10 +35498,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>260.2256450279866</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257283</v>
+        <v>41.00382492257294</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488438</v>
+        <v>74.53507640488449</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35732,16 +35732,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>484.6198681696871</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
@@ -35975,10 +35975,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>171.4214974565491</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>511.1624453563713</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>88.29766032133915</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184303</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449122</v>
       </c>
       <c r="O23" t="n">
         <v>444.4844453457863</v>
@@ -36437,13 +36437,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>396.904887558667</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
@@ -36452,10 +36452,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>86.27424572268772</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434254</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,19 +36525,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>213.0525346398104</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835636</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101028</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36616,7 +36616,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>511.1624453563711</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,22 +36835,22 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>438.3550650625836</v>
       </c>
       <c r="Q29" t="n">
-        <v>273.3632145670545</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>511.1624453563711</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261598</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>611.0832447409209</v>
       </c>
       <c r="M32" t="n">
-        <v>600.1759880394256</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.479168044982</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>487.9795421773856</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066585</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>299.4926067837691</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>73.93605315237764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890192</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791174</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868808</v>
+        <v>195.4415774595199</v>
       </c>
       <c r="L34" t="n">
-        <v>184.4999634345637</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.9532312255019</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750296</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.423493438029</v>
+        <v>197.8808906882714</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K35" t="n">
         <v>362.6084404317796</v>
@@ -37394,13 +37394,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>545.2308884987849</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37479,13 +37479,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257369</v>
+        <v>39.16725411683999</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>73.93605315237758</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37956,10 +37956,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>131.7547461184303</v>
+        <v>31.46926427500442</v>
       </c>
       <c r="R43" t="n">
-        <v>7.697989841835579</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38187,16 +38187,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>249.3850182462351</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.697989841835636</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
